--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA9CD1-C85F-4481-AC15-6DF781EAD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965969FC-4EA6-4C41-8F6A-8EA5C3262068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
@@ -509,12 +509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965969FC-4EA6-4C41-8F6A-8EA5C3262068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50164AFC-2D44-4447-9D35-8B7BE1C4DABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1">
-        <v>322</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -535,10 +535,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>312</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -546,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -557,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>398</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -568,10 +568,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>283</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -579,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -590,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -601,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -612,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>264</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -623,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -634,10 +634,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -645,10 +645,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -656,10 +656,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>312</v>
@@ -678,10 +678,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,7 +689,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -697,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -708,10 +711,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -719,10 +722,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -730,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -741,10 +744,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>247</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -752,10 +755,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -763,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -774,10 +777,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -785,10 +788,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -796,10 +799,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -807,10 +810,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -818,10 +821,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -829,10 +832,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,10 +843,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -851,10 +854,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>337</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -862,10 +865,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -884,10 +887,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -895,10 +898,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>340</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -906,10 +909,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>305</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -928,10 +931,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>386</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -939,10 +942,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>325</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -950,13 +953,16 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C40">
+    <sortCondition descending="1" ref="C1:C40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50164AFC-2D44-4447-9D35-8B7BE1C4DABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308360F-2FE4-4B03-BEAD-2A67B338F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
+    <workbookView xWindow="55710" yWindow="420" windowWidth="30000" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +170,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,8 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,151 +522,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="1">
+        <v>44933</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>322</v>
+      </c>
+      <c r="D2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3">
+        <v>312</v>
+      </c>
+      <c r="D3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>296</v>
+      </c>
+      <c r="D4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C1">
+      <c r="C5">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>283</v>
+      </c>
+      <c r="D6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>345</v>
+      </c>
+      <c r="D7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>356</v>
+      </c>
+      <c r="D8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>311</v>
+      </c>
+      <c r="D9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="C10">
+        <v>264</v>
+      </c>
+      <c r="D10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11">
+        <v>293</v>
+      </c>
+      <c r="D11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="D12">
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -661,19 +707,25 @@
       <c r="C13">
         <v>315</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="D14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -683,52 +735,67 @@
       <c r="C15">
         <v>312</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>305</v>
+      </c>
+      <c r="D16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>298</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
       <c r="C19">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="D19">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -738,231 +805,309 @@
       <c r="C20">
         <v>310</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>270</v>
+      </c>
+      <c r="D21">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>249</v>
+      </c>
+      <c r="D22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>295</v>
+      </c>
+      <c r="D23">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C24">
+        <v>336</v>
+      </c>
+      <c r="D24">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>306</v>
+      </c>
+      <c r="D25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>312</v>
+      </c>
+      <c r="D26">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>312</v>
+      </c>
+      <c r="D27">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>12</v>
       </c>
-      <c r="C21">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>319</v>
+      </c>
+      <c r="D28">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>305</v>
+      </c>
+      <c r="D29">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C30">
         <v>307</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
+      <c r="D30">
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>342</v>
+      </c>
+      <c r="D31">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>337</v>
+      </c>
+      <c r="D32">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>246</v>
+      </c>
+      <c r="D33">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>278</v>
+      </c>
+      <c r="D34">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>262</v>
+      </c>
+      <c r="D35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>340</v>
+      </c>
+      <c r="D36">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
         <v>305</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D37">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>252</v>
+      </c>
+      <c r="D38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>386</v>
+      </c>
+      <c r="D39">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>325</v>
+      </c>
+      <c r="D40">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>18</v>
       </c>
-      <c r="C34">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C41">
+        <v>312</v>
+      </c>
+      <c r="D41">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C40">
-    <sortCondition descending="1" ref="C1:C40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="B2:B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308360F-2FE4-4B03-BEAD-2A67B338F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE6F5F-2A08-4060-AEDA-22B9C06BAF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55710" yWindow="420" windowWidth="30000" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="30000" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,28 +522,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C1" s="1">
         <v>44933</v>
       </c>
       <c r="D1" s="1">
         <v>44955</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
@@ -556,8 +559,11 @@
       <c r="D2">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>14</v>
       </c>
@@ -570,8 +576,11 @@
       <c r="D3">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>29</v>
       </c>
@@ -584,8 +593,11 @@
       <c r="D4">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -598,8 +610,11 @@
       <c r="D5">
         <v>398</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>32</v>
       </c>
@@ -612,8 +627,11 @@
       <c r="D6">
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -626,8 +644,11 @@
       <c r="D7">
         <v>337</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -640,8 +661,11 @@
       <c r="D8">
         <v>349</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>19</v>
       </c>
@@ -654,8 +678,11 @@
       <c r="D9">
         <v>312</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>35</v>
       </c>
@@ -668,8 +695,11 @@
       <c r="D10">
         <v>276</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>31</v>
       </c>
@@ -682,8 +712,11 @@
       <c r="D11">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -696,8 +729,11 @@
       <c r="D12">
         <v>322</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -710,8 +746,11 @@
       <c r="D13">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21</v>
       </c>
@@ -724,8 +763,11 @@
       <c r="D14">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -738,8 +780,11 @@
       <c r="D15">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>24</v>
       </c>
@@ -752,8 +797,11 @@
       <c r="D16">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>40</v>
       </c>
@@ -766,8 +814,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>28</v>
       </c>
@@ -780,8 +831,11 @@
       <c r="D18">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
@@ -794,8 +848,11 @@
       <c r="D19">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -808,8 +865,11 @@
       <c r="D20">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>34</v>
       </c>
@@ -822,8 +882,11 @@
       <c r="D21">
         <v>295</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>38</v>
       </c>
@@ -836,8 +899,11 @@
       <c r="D22">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>30</v>
       </c>
@@ -850,8 +916,11 @@
       <c r="D23">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -864,8 +933,11 @@
       <c r="D24">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -878,8 +950,11 @@
       <c r="D25">
         <v>306</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16</v>
       </c>
@@ -892,8 +967,11 @@
       <c r="D26">
         <v>317</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>17</v>
       </c>
@@ -906,8 +984,11 @@
       <c r="D27">
         <v>339</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>12</v>
       </c>
@@ -920,8 +1001,11 @@
       <c r="D28">
         <v>321</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>25</v>
       </c>
@@ -934,8 +1018,11 @@
       <c r="D29">
         <v>299</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -948,8 +1035,11 @@
       <c r="D30">
         <v>306</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5</v>
       </c>
@@ -962,8 +1052,11 @@
       <c r="D31">
         <v>341</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
@@ -976,8 +1069,11 @@
       <c r="D32">
         <v>336</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>39</v>
       </c>
@@ -990,8 +1086,11 @@
       <c r="D33">
         <v>257</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1004,8 +1103,11 @@
       <c r="D34">
         <v>287</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>36</v>
       </c>
@@ -1018,8 +1120,11 @@
       <c r="D35">
         <v>264</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1032,8 +1137,11 @@
       <c r="D36">
         <v>318</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>26</v>
       </c>
@@ -1046,8 +1154,11 @@
       <c r="D37">
         <v>301</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1060,8 +1171,11 @@
       <c r="D38">
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1074,8 +1188,11 @@
       <c r="D39">
         <v>384</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1088,8 +1205,11 @@
       <c r="D40">
         <v>325</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>18</v>
       </c>
@@ -1102,10 +1222,13 @@
       <c r="D41">
         <v>303</v>
       </c>
+      <c r="E41">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="B2:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
+    <sortCondition ref="B2:B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE6F5F-2A08-4060-AEDA-22B9C06BAF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5071926F-4FA8-456D-BDB1-622D7116765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="30000" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -522,20 +525,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" customWidth="1"/>
+    <col min="3" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="1">
         <v>44933</v>
       </c>
@@ -545,8 +548,11 @@
       <c r="E1" s="1">
         <v>44968</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
@@ -560,10 +566,13 @@
         <v>301</v>
       </c>
       <c r="E2">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="F2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>14</v>
       </c>
@@ -579,8 +588,11 @@
       <c r="E3">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>29</v>
       </c>
@@ -596,8 +608,11 @@
       <c r="E4">
         <v>292</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -613,8 +628,11 @@
       <c r="E5">
         <v>395</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>32</v>
       </c>
@@ -630,8 +648,11 @@
       <c r="E6">
         <v>286</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -647,8 +668,11 @@
       <c r="E7">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -664,8 +688,11 @@
       <c r="E8">
         <v>342</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>19</v>
       </c>
@@ -681,8 +708,11 @@
       <c r="E9">
         <v>313</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>35</v>
       </c>
@@ -698,8 +728,11 @@
       <c r="E10">
         <v>270</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>31</v>
       </c>
@@ -715,8 +748,11 @@
       <c r="E11">
         <v>305</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -732,8 +768,11 @@
       <c r="E12">
         <v>332</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -749,8 +788,11 @@
       <c r="E13">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21</v>
       </c>
@@ -766,8 +808,11 @@
       <c r="E14">
         <v>325</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -783,8 +828,11 @@
       <c r="E15">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>24</v>
       </c>
@@ -800,8 +848,11 @@
       <c r="E16">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>40</v>
       </c>
@@ -817,8 +868,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>28</v>
       </c>
@@ -834,8 +888,11 @@
       <c r="E18">
         <v>302</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
@@ -851,8 +908,11 @@
       <c r="E19">
         <v>314</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -868,8 +928,11 @@
       <c r="E20">
         <v>292</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>34</v>
       </c>
@@ -885,8 +948,11 @@
       <c r="E21">
         <v>286</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>38</v>
       </c>
@@ -902,8 +968,11 @@
       <c r="E22">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>30</v>
       </c>
@@ -919,8 +988,11 @@
       <c r="E23">
         <v>343</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -936,8 +1008,11 @@
       <c r="E24">
         <v>337</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -953,8 +1028,11 @@
       <c r="E25">
         <v>307</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16</v>
       </c>
@@ -970,8 +1048,11 @@
       <c r="E26">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>17</v>
       </c>
@@ -987,8 +1068,11 @@
       <c r="E27">
         <v>342</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1004,8 +1088,11 @@
       <c r="E28">
         <v>310</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1021,8 +1108,11 @@
       <c r="E29">
         <v>300</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22</v>
       </c>
@@ -1038,8 +1128,11 @@
       <c r="E30">
         <v>284</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1055,8 +1148,11 @@
       <c r="E31">
         <v>329</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1072,8 +1168,11 @@
       <c r="E32">
         <v>336</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1089,8 +1188,11 @@
       <c r="E33">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1106,8 +1208,11 @@
       <c r="E34">
         <v>290</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>36</v>
       </c>
@@ -1123,8 +1228,11 @@
       <c r="E35">
         <v>267</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1140,8 +1248,11 @@
       <c r="E36">
         <v>346</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>26</v>
       </c>
@@ -1157,8 +1268,11 @@
       <c r="E37">
         <v>297</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1174,8 +1288,11 @@
       <c r="E38">
         <v>282</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1191,8 +1308,11 @@
       <c r="E39">
         <v>387</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1208,8 +1328,11 @@
       <c r="E40">
         <v>327</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>18</v>
       </c>
@@ -1225,10 +1348,13 @@
       <c r="E41">
         <v>306</v>
       </c>
+      <c r="F41">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
-    <sortCondition ref="B2:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="B2:B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD1B6C-4D4F-4E50-8447-2FF565164909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB110C-78DF-49A6-9643-405CEAA5B56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="38370" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,18 +210,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -263,11 +251,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,10 +584,10 @@
     <col min="1" max="1" width="5.90625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" style="4" customWidth="1"/>
-    <col min="4" max="8" width="12.6328125" customWidth="1"/>
+    <col min="4" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -626,11 +612,14 @@
       <c r="H1" s="2">
         <v>45017</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2">
+        <v>45059</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -655,12 +644,15 @@
       <c r="H2">
         <v>397</v>
       </c>
-      <c r="I2" s="9">
-        <f>(H2-G2)/G2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>390</v>
+      </c>
+      <c r="J2" s="9">
+        <f>(I2-H2)/H2</f>
+        <v>-1.7632241813602016E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -685,44 +677,50 @@
       <c r="H3">
         <v>382</v>
       </c>
-      <c r="I3" s="9">
-        <f>(H3-G3)/G3</f>
-        <v>-7.7922077922077922E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>389</v>
+      </c>
+      <c r="J3" s="9">
+        <f>(I3-H3)/H3</f>
+        <v>1.832460732984293E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="D4">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="E4">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G4">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H4">
-        <v>350</v>
-      </c>
-      <c r="I4" s="9">
-        <f>(H4-G4)/G4</f>
-        <v>4.790419161676647E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+      <c r="I4">
+        <v>371</v>
+      </c>
+      <c r="J4" s="9">
+        <f>(I4-H4)/H4</f>
+        <v>9.4395280235988199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -745,674 +743,743 @@
       <c r="H5">
         <v>348</v>
       </c>
-      <c r="I5" s="9">
-        <f>(H5-G5)/G5</f>
-        <v>8.6956521739130436E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>364</v>
+      </c>
+      <c r="J5" s="9">
+        <f>(I5-H5)/H5</f>
+        <v>4.5977011494252873E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D6">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E6">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F6">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="G6">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H6">
-        <v>343</v>
-      </c>
-      <c r="I6" s="9">
-        <f>(H6-G6)/G6</f>
+        <v>350</v>
+      </c>
+      <c r="I6">
+        <v>350</v>
+      </c>
+      <c r="J6" s="9">
+        <f>(I6-H6)/H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>312</v>
+      </c>
+      <c r="E7">
+        <v>303</v>
+      </c>
+      <c r="F7">
+        <v>322</v>
+      </c>
+      <c r="G7">
+        <v>317</v>
+      </c>
+      <c r="H7">
+        <v>313</v>
+      </c>
+      <c r="I7">
+        <v>347</v>
+      </c>
+      <c r="J7" s="9">
+        <f>(I7-H7)/H7</f>
+        <v>0.10862619808306709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D7">
-        <v>319</v>
-      </c>
-      <c r="E7">
-        <v>321</v>
-      </c>
-      <c r="F7">
-        <v>310</v>
-      </c>
-      <c r="G7">
-        <v>341</v>
-      </c>
-      <c r="H7">
-        <v>342</v>
-      </c>
-      <c r="I7" s="9">
-        <f>(H7-G7)/G7</f>
-        <v>2.9325513196480938E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="4">
         <v>2000</v>
       </c>
       <c r="D8">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E8">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F8">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G8">
         <v>337</v>
       </c>
       <c r="H8">
+        <v>338</v>
+      </c>
+      <c r="I8">
+        <v>344</v>
+      </c>
+      <c r="J8" s="9">
+        <f>(I8-H8)/H8</f>
+        <v>1.7751479289940829E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D9">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <v>336</v>
+      </c>
+      <c r="F9">
+        <v>336</v>
+      </c>
+      <c r="G9">
+        <v>338</v>
+      </c>
+      <c r="H9">
+        <v>334</v>
+      </c>
+      <c r="I9">
         <v>341</v>
       </c>
-      <c r="I8" s="9">
-        <f>(H8-G8)/G8</f>
-        <v>1.1869436201780416E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D9">
-        <v>315</v>
-      </c>
-      <c r="E9">
-        <v>317</v>
-      </c>
-      <c r="F9">
-        <v>316</v>
-      </c>
-      <c r="G9">
-        <v>326</v>
-      </c>
-      <c r="H9">
-        <v>341</v>
-      </c>
-      <c r="I9" s="9">
-        <f>(H9-G9)/G9</f>
-        <v>4.6012269938650305E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="9">
+        <f>(I9-H9)/H9</f>
+        <v>2.0958083832335328E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>775</v>
+        <v>2000</v>
       </c>
       <c r="D10">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E10">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F10">
         <v>314</v>
       </c>
       <c r="G10">
+        <v>309</v>
+      </c>
+      <c r="H10">
+        <v>315</v>
+      </c>
+      <c r="I10">
+        <v>339</v>
+      </c>
+      <c r="J10" s="9">
+        <f>(I10-H10)/H10</f>
+        <v>7.6190476190476197E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D11">
+        <v>319</v>
+      </c>
+      <c r="E11">
+        <v>321</v>
+      </c>
+      <c r="F11">
+        <v>310</v>
+      </c>
+      <c r="G11">
+        <v>341</v>
+      </c>
+      <c r="H11">
+        <v>342</v>
+      </c>
+      <c r="I11">
+        <v>339</v>
+      </c>
+      <c r="J11" s="9">
+        <f>(I11-H11)/H11</f>
+        <v>-8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D12">
         <v>340</v>
       </c>
-      <c r="H10">
-        <v>340</v>
-      </c>
-      <c r="I10" s="9">
-        <f>(H10-G10)/G10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>305</v>
-      </c>
-      <c r="E11">
-        <v>298</v>
-      </c>
-      <c r="F11">
-        <v>303</v>
-      </c>
-      <c r="G11">
-        <v>309</v>
-      </c>
-      <c r="H11">
-        <v>340</v>
-      </c>
-      <c r="I11" s="10">
-        <f>(H11-G11)/G11</f>
-        <v>0.10032362459546926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D12">
-        <v>336</v>
-      </c>
       <c r="E12">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F12">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G12">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H12">
         <v>339</v>
       </c>
-      <c r="I12" s="9">
-        <f>(H12-G12)/G12</f>
-        <v>2.9585798816568047E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>339</v>
+      </c>
+      <c r="J12" s="9">
+        <f>(I12-H12)/H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D13">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="E13">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F13">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="G13">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H13">
-        <v>339</v>
-      </c>
-      <c r="I13" s="9">
-        <f>(H13-G13)/G13</f>
-        <v>2.4169184290030211E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+      <c r="I13">
+        <v>338</v>
+      </c>
+      <c r="J13" s="9">
+        <f>(I13-H13)/H13</f>
+        <v>-1.4577259475218658E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4">
         <v>2000</v>
       </c>
       <c r="D14">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E14">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F14">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G14">
         <v>337</v>
       </c>
       <c r="H14">
-        <v>338</v>
-      </c>
-      <c r="I14" s="9">
-        <f>(H14-G14)/G14</f>
-        <v>2.967359050445104E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+      <c r="I14">
+        <v>336</v>
+      </c>
+      <c r="J14" s="9">
+        <f>(I14-H14)/H14</f>
+        <v>-1.466275659824047E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D15">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="E15">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="F15">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="G15">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="H15">
-        <v>334</v>
-      </c>
-      <c r="I15" s="9">
-        <f>(H15-G15)/G15</f>
-        <v>-1.1834319526627219E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+      <c r="I15">
+        <v>330</v>
+      </c>
+      <c r="J15" s="9">
+        <f>(I15-H15)/H15</f>
+        <v>7.4918566775244305E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>305</v>
+      </c>
+      <c r="E16">
+        <v>298</v>
+      </c>
+      <c r="F16">
+        <v>303</v>
+      </c>
+      <c r="G16">
+        <v>309</v>
+      </c>
+      <c r="H16">
+        <v>340</v>
+      </c>
+      <c r="I16">
+        <v>330</v>
+      </c>
+      <c r="J16" s="9">
+        <f>(I16-H16)/H16</f>
+        <v>-2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4">
+        <v>938</v>
+      </c>
+      <c r="D17">
+        <v>325</v>
+      </c>
+      <c r="E17">
+        <v>325</v>
+      </c>
+      <c r="F17">
+        <v>327</v>
+      </c>
+      <c r="G17">
+        <v>325</v>
+      </c>
+      <c r="H17">
+        <v>306</v>
+      </c>
+      <c r="I17">
+        <v>328</v>
+      </c>
+      <c r="J17" s="9">
+        <f>(I17-H17)/H17</f>
+        <v>7.1895424836601302E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>322</v>
+      </c>
+      <c r="E18">
+        <v>301</v>
+      </c>
+      <c r="F18">
+        <v>332</v>
+      </c>
+      <c r="G18">
+        <v>321</v>
+      </c>
+      <c r="H18">
+        <v>320</v>
+      </c>
+      <c r="I18">
+        <v>325</v>
+      </c>
+      <c r="J18" s="9">
+        <f>(I18-H18)/H18</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D19">
+        <v>315</v>
+      </c>
+      <c r="E19">
+        <v>317</v>
+      </c>
+      <c r="F19">
+        <v>316</v>
+      </c>
+      <c r="G19">
+        <v>326</v>
+      </c>
+      <c r="H19">
+        <v>341</v>
+      </c>
+      <c r="I19">
+        <v>323</v>
+      </c>
+      <c r="J19" s="9">
+        <f>(I19-H19)/H19</f>
+        <v>-5.2785923753665691E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D20">
+        <v>306</v>
+      </c>
+      <c r="E20">
+        <v>306</v>
+      </c>
+      <c r="F20">
+        <v>307</v>
+      </c>
+      <c r="G20">
+        <v>306</v>
+      </c>
+      <c r="H20">
+        <v>307</v>
+      </c>
+      <c r="I20">
+        <v>323</v>
+      </c>
+      <c r="J20" s="9">
+        <f>(I20-H20)/H20</f>
+        <v>5.2117263843648211E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21000</v>
-      </c>
-      <c r="D16">
-        <v>326</v>
-      </c>
-      <c r="E16">
-        <v>322</v>
-      </c>
-      <c r="F16">
-        <v>332</v>
-      </c>
-      <c r="G16">
-        <v>311</v>
-      </c>
-      <c r="H16">
-        <v>325</v>
-      </c>
-      <c r="I16" s="9">
-        <f>(H16-G16)/G16</f>
-        <v>4.5016077170418008E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D17">
-        <v>322</v>
-      </c>
-      <c r="E17">
-        <v>301</v>
-      </c>
-      <c r="F17">
-        <v>332</v>
-      </c>
-      <c r="G17">
-        <v>321</v>
-      </c>
-      <c r="H17">
-        <v>320</v>
-      </c>
-      <c r="I17" s="9">
-        <f>(H17-G17)/G17</f>
-        <v>-3.1152647975077881E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D18">
-        <v>300</v>
-      </c>
-      <c r="E18">
-        <v>306</v>
-      </c>
-      <c r="F18">
-        <v>314</v>
-      </c>
-      <c r="G18">
-        <v>309</v>
-      </c>
-      <c r="H18">
-        <v>315</v>
-      </c>
-      <c r="I18" s="9">
-        <f>(H18-G18)/G18</f>
-        <v>1.9417475728155338E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6000</v>
-      </c>
-      <c r="D19">
-        <v>312</v>
-      </c>
-      <c r="E19">
-        <v>303</v>
-      </c>
-      <c r="F19">
-        <v>322</v>
-      </c>
-      <c r="G19">
-        <v>317</v>
-      </c>
-      <c r="H19">
-        <v>313</v>
-      </c>
-      <c r="I19" s="9">
-        <f>(H19-G19)/G19</f>
-        <v>-1.2618296529968454E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D20">
-        <v>278</v>
-      </c>
-      <c r="E20">
-        <v>287</v>
-      </c>
-      <c r="F20">
-        <v>290</v>
-      </c>
-      <c r="G20">
-        <v>277</v>
-      </c>
-      <c r="H20">
-        <v>311</v>
-      </c>
-      <c r="I20" s="10">
-        <f>(H20-G20)/G20</f>
-        <v>0.12274368231046931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4">
         <v>5000</v>
       </c>
       <c r="D21">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F21">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G21">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H21">
-        <v>310</v>
-      </c>
-      <c r="I21" s="9">
-        <f>(H21-G21)/G21</f>
-        <v>-2.2082018927444796E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="I21">
+        <v>320</v>
+      </c>
+      <c r="J21" s="9">
+        <f>(I21-H21)/H21</f>
+        <v>0.13879003558718861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4">
+        <v>21000</v>
+      </c>
+      <c r="D22">
+        <v>326</v>
+      </c>
+      <c r="E22">
+        <v>322</v>
+      </c>
+      <c r="F22">
+        <v>332</v>
+      </c>
+      <c r="G22">
+        <v>311</v>
+      </c>
+      <c r="H22">
+        <v>325</v>
+      </c>
+      <c r="I22">
+        <v>316</v>
+      </c>
+      <c r="J22" s="9">
+        <f>(I22-H22)/H22</f>
+        <v>-2.7692307692307693E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4">
         <v>3000</v>
       </c>
-      <c r="D22">
-        <v>311</v>
-      </c>
-      <c r="E22">
+      <c r="D23">
         <v>312</v>
       </c>
-      <c r="F22">
-        <v>313</v>
-      </c>
-      <c r="G22">
-        <v>309</v>
-      </c>
-      <c r="H22">
+      <c r="E23">
+        <v>303</v>
+      </c>
+      <c r="F23">
+        <v>306</v>
+      </c>
+      <c r="G23">
         <v>307</v>
-      </c>
-      <c r="I22" s="9">
-        <f>(H22-G22)/G22</f>
-        <v>-6.4724919093851136E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D23">
-        <v>306</v>
-      </c>
-      <c r="E23">
-        <v>306</v>
-      </c>
-      <c r="F23">
-        <v>307</v>
-      </c>
-      <c r="G23">
-        <v>306</v>
       </c>
       <c r="H23">
         <v>307</v>
       </c>
-      <c r="I23" s="9">
-        <f>(H23-G23)/G23</f>
-        <v>3.2679738562091504E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>316</v>
+      </c>
+      <c r="J23" s="9">
+        <f>(I23-H23)/H23</f>
+        <v>2.9315960912052116E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4">
-        <v>676</v>
+        <v>2000</v>
       </c>
       <c r="D24">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="E24">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="F24">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="G24">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="H24">
-        <v>307</v>
-      </c>
-      <c r="I24" s="9">
-        <f>(H24-G24)/G24</f>
-        <v>-3.4591194968553458E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+      <c r="I24">
+        <v>314</v>
+      </c>
+      <c r="J24" s="9">
+        <f>(I24-H24)/H24</f>
+        <v>6.4406779661016947E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D25">
+        <v>293</v>
+      </c>
+      <c r="E25">
+        <v>301</v>
+      </c>
+      <c r="F25">
+        <v>305</v>
+      </c>
+      <c r="G25">
+        <v>305</v>
+      </c>
+      <c r="H25">
+        <v>304</v>
+      </c>
+      <c r="I25">
+        <v>313</v>
+      </c>
+      <c r="J25" s="9">
+        <f>(I25-H25)/H25</f>
+        <v>2.9605263157894735E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D26">
+        <v>296</v>
+      </c>
+      <c r="E26">
+        <v>290</v>
+      </c>
+      <c r="F26">
+        <v>292</v>
+      </c>
+      <c r="G26">
+        <v>299</v>
+      </c>
+      <c r="H26">
+        <v>283</v>
+      </c>
+      <c r="I26">
         <v>312</v>
       </c>
-      <c r="E25">
-        <v>303</v>
-      </c>
-      <c r="F25">
-        <v>306</v>
-      </c>
-      <c r="G25">
-        <v>307</v>
-      </c>
-      <c r="H25">
-        <v>307</v>
-      </c>
-      <c r="I25" s="9">
-        <f>(H25-G25)/G25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="4">
-        <v>938</v>
-      </c>
-      <c r="D26">
-        <v>325</v>
-      </c>
-      <c r="E26">
-        <v>325</v>
-      </c>
-      <c r="F26">
-        <v>327</v>
-      </c>
-      <c r="G26">
-        <v>325</v>
-      </c>
-      <c r="H26">
-        <v>306</v>
-      </c>
-      <c r="I26" s="12">
-        <f>(H26-G26)/G26</f>
-        <v>-5.8461538461538461E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="9">
+        <f>(I26-H26)/H26</f>
+        <v>0.10247349823321555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E27">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F27">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G27">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H27">
-        <v>304</v>
-      </c>
-      <c r="I27" s="9">
-        <f>(H27-G27)/G27</f>
-        <v>-3.2786885245901639E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+      <c r="I27">
+        <v>309</v>
+      </c>
+      <c r="J27" s="9">
+        <f>(I27-H27)/H27</f>
+        <v>-6.4308681672025723E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -1435,254 +1502,281 @@
       <c r="H28">
         <v>297</v>
       </c>
-      <c r="I28" s="9">
-        <f>(H28-G28)/G28</f>
-        <v>-6.688963210702341E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>307</v>
+      </c>
+      <c r="J28" s="9">
+        <f>(I28-H28)/H28</f>
+        <v>3.3670033670033669E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="D29">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="E29">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="F29">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G29">
+        <v>282</v>
+      </c>
+      <c r="H29">
+        <v>293</v>
+      </c>
+      <c r="I29">
+        <v>307</v>
+      </c>
+      <c r="J29" s="9">
+        <f>(I29-H29)/H29</f>
+        <v>4.778156996587031E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D30">
+        <v>305</v>
+      </c>
+      <c r="E30">
+        <v>299</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>289</v>
+      </c>
+      <c r="H30">
         <v>287</v>
       </c>
-      <c r="H29">
-        <v>296</v>
-      </c>
-      <c r="I29" s="9">
-        <f>(H29-G29)/G29</f>
-        <v>3.1358885017421602E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D30">
-        <v>283</v>
-      </c>
-      <c r="E30">
-        <v>290</v>
-      </c>
-      <c r="F30">
-        <v>286</v>
-      </c>
-      <c r="G30">
-        <v>292</v>
-      </c>
-      <c r="H30">
-        <v>295</v>
-      </c>
-      <c r="I30" s="9">
-        <f>(H30-G30)/G30</f>
-        <v>1.0273972602739725E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>304</v>
+      </c>
+      <c r="J30" s="9">
+        <f>(I30-H30)/H30</f>
+        <v>5.9233449477351915E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31" s="4">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="D31">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E31">
         <v>300</v>
       </c>
       <c r="F31">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G31">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="H31">
-        <v>295</v>
-      </c>
-      <c r="I31" s="9">
-        <f>(H31-G31)/G31</f>
-        <v>-1.0067114093959731E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+      <c r="I31">
+        <v>303</v>
+      </c>
+      <c r="J31" s="9">
+        <f>(I31-H31)/H31</f>
+        <v>-2.2580645161290321E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="D32">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E32">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="F32">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G32">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H32">
-        <v>293</v>
-      </c>
-      <c r="I32" s="9">
-        <f>(H32-G32)/G32</f>
-        <v>3.9007092198581561E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="I32">
+        <v>297</v>
+      </c>
+      <c r="J32" s="9">
+        <f>(I32-H32)/H32</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D33">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E33">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F33">
+        <v>325</v>
+      </c>
+      <c r="G33">
+        <v>319</v>
+      </c>
+      <c r="H33">
+        <v>210</v>
+      </c>
+      <c r="I33">
+        <v>295</v>
+      </c>
+      <c r="J33" s="9">
+        <f>(I33-H33)/H33</f>
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8000</v>
+      </c>
+      <c r="D34">
+        <v>249</v>
+      </c>
+      <c r="E34">
+        <v>254</v>
+      </c>
+      <c r="F34">
+        <v>254</v>
+      </c>
+      <c r="G34">
+        <v>245</v>
+      </c>
+      <c r="H34">
+        <v>242</v>
+      </c>
+      <c r="I34">
+        <v>295</v>
+      </c>
+      <c r="J34" s="9">
+        <f>(I34-H34)/H34</f>
+        <v>0.21900826446280991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4">
+        <v>22000</v>
+      </c>
+      <c r="D35">
+        <v>298</v>
+      </c>
+      <c r="E35">
         <v>300</v>
       </c>
-      <c r="G33">
-        <v>289</v>
-      </c>
-      <c r="H33">
-        <v>287</v>
-      </c>
-      <c r="I33" s="9">
-        <f>(H33-G33)/G33</f>
-        <v>-6.920415224913495E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4">
-        <v>7000</v>
-      </c>
-      <c r="D34">
-        <v>296</v>
-      </c>
-      <c r="E34">
-        <v>290</v>
-      </c>
-      <c r="F34">
-        <v>292</v>
-      </c>
-      <c r="G34">
-        <v>299</v>
-      </c>
-      <c r="H34">
-        <v>283</v>
-      </c>
-      <c r="I34" s="9">
-        <f>(H34-G34)/G34</f>
-        <v>-5.3511705685618728E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D35">
-        <v>312</v>
-      </c>
-      <c r="E35">
-        <v>317</v>
-      </c>
       <c r="F35">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G35">
+        <v>298</v>
+      </c>
+      <c r="H35">
+        <v>295</v>
+      </c>
+      <c r="I35">
         <v>293</v>
       </c>
-      <c r="H35">
-        <v>281</v>
-      </c>
-      <c r="I35" s="9">
-        <f>(H35-G35)/G35</f>
-        <v>-4.0955631399317405E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="9">
+        <f>(I35-H35)/H35</f>
+        <v>-6.7796610169491523E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="4">
+        <v>676</v>
+      </c>
+      <c r="D36">
+        <v>342</v>
+      </c>
+      <c r="E36">
+        <v>341</v>
+      </c>
+      <c r="F36">
+        <v>329</v>
+      </c>
+      <c r="G36">
+        <v>318</v>
+      </c>
+      <c r="H36">
+        <v>307</v>
+      </c>
+      <c r="I36">
+        <v>293</v>
+      </c>
+      <c r="J36" s="9">
+        <f>(I36-H36)/H36</f>
+        <v>-4.5602605863192182E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4">
-        <v>13000</v>
-      </c>
-      <c r="D36">
-        <v>264</v>
-      </c>
-      <c r="E36">
-        <v>276</v>
-      </c>
-      <c r="F36">
-        <v>270</v>
-      </c>
-      <c r="G36">
-        <v>275</v>
-      </c>
-      <c r="H36">
-        <v>279</v>
-      </c>
-      <c r="I36" s="9">
-        <f>(H36-G36)/G36</f>
-        <v>1.4545454545454545E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -1705,102 +1799,114 @@
       <c r="H37">
         <v>264</v>
       </c>
-      <c r="I37" s="9">
-        <f>(H37-G37)/G37</f>
-        <v>-1.4925373134328358E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <v>281</v>
+      </c>
+      <c r="J37" s="9">
+        <f>(I37-H37)/H37</f>
+        <v>6.4393939393939392E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D38">
+        <v>270</v>
+      </c>
+      <c r="E38">
+        <v>295</v>
+      </c>
+      <c r="F38">
+        <v>286</v>
+      </c>
+      <c r="G38">
+        <v>287</v>
+      </c>
+      <c r="H38">
+        <v>296</v>
+      </c>
+      <c r="I38">
+        <v>279</v>
+      </c>
+      <c r="J38" s="9">
+        <f>(I38-H38)/H38</f>
+        <v>-5.7432432432432436E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C39" s="4">
         <v>3000</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>246</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>257</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>255</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>255</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>250</v>
       </c>
-      <c r="I38" s="9">
-        <f>(H38-G38)/G38</f>
-        <v>-1.9607843137254902E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="I39">
+        <v>269</v>
+      </c>
+      <c r="J39" s="9">
+        <f>(I39-H39)/H39</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="4">
-        <v>8000</v>
-      </c>
-      <c r="D39">
-        <v>249</v>
-      </c>
-      <c r="E39">
-        <v>254</v>
-      </c>
-      <c r="F39">
-        <v>254</v>
-      </c>
-      <c r="G39">
-        <v>245</v>
-      </c>
-      <c r="H39">
-        <v>242</v>
-      </c>
-      <c r="I39" s="9">
-        <f>(H39-G39)/G39</f>
-        <v>-1.2244897959183673E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>16</v>
-      </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" s="4">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="D40">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E40">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F40">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G40">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="H40">
-        <v>210</v>
-      </c>
-      <c r="I40" s="12">
-        <f>(H40-G40)/G40</f>
-        <v>-0.34169278996865204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <f>(I40-H40)/H40</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1825,13 +1931,16 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
-    <sortCondition descending="1" ref="H2:H42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J41">
+    <sortCondition descending="1" ref="I2:I41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F230B86-C55B-423D-8602-89E0361B10E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6F242-5B34-4D96-85BB-FCD21D23AA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38080" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>AIR LIQUIDE</t>
   </si>
@@ -177,13 +177,19 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Sort du CAC40</t>
+  </si>
+  <si>
+    <t>EDENRED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +201,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -251,7 +265,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -573,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,10 +601,10 @@
     <col min="1" max="1" width="5.90625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" style="4" customWidth="1"/>
-    <col min="4" max="10" width="12.6328125" customWidth="1"/>
+    <col min="4" max="11" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -618,11 +635,14 @@
       <c r="J1" s="2">
         <v>45079</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2">
+        <v>45108</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>17</v>
       </c>
@@ -653,12 +673,15 @@
       <c r="J2">
         <v>329</v>
       </c>
-      <c r="K2" s="9">
-        <f>(I2-H2)/H2</f>
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>329</v>
+      </c>
+      <c r="L2" s="9">
+        <f>(K2-J2)/J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -689,12 +712,15 @@
       <c r="J3">
         <v>345</v>
       </c>
-      <c r="K3" s="9">
-        <f>(I3-H3)/H3</f>
-        <v>0.10862619808306709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>345</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L42" si="0">(K3-J3)/J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>25</v>
       </c>
@@ -725,12 +751,15 @@
       <c r="J4">
         <v>316</v>
       </c>
-      <c r="K4" s="9">
-        <f>(I4-H4)/H4</f>
-        <v>0.10247349823321555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>316</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -761,12 +790,15 @@
       <c r="J5">
         <v>390</v>
       </c>
-      <c r="K5" s="9">
-        <f>(I5-H5)/H5</f>
-        <v>-1.7632241813602016E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>390</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>23</v>
       </c>
@@ -797,12 +829,15 @@
       <c r="J6">
         <v>313</v>
       </c>
-      <c r="K6" s="9">
-        <f>(I6-H6)/H6</f>
-        <v>6.4406779661016947E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>313</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -833,12 +868,15 @@
       <c r="J7">
         <v>324</v>
       </c>
-      <c r="K7" s="9">
-        <f>(I7-H7)/H7</f>
-        <v>1.7751479289940829E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>324</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -869,12 +907,15 @@
       <c r="J8">
         <v>333</v>
       </c>
-      <c r="K8" s="9">
-        <f>(I8-H8)/H8</f>
-        <v>-1.466275659824047E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>333</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>14</v>
       </c>
@@ -905,12 +946,15 @@
       <c r="J9">
         <v>301</v>
       </c>
-      <c r="K9" s="9">
-        <f>(I9-H9)/H9</f>
-        <v>7.4918566775244305E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>301</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>31</v>
       </c>
@@ -941,12 +985,15 @@
       <c r="J10">
         <v>298</v>
       </c>
-      <c r="K10" s="9">
-        <f>(I10-H10)/H10</f>
-        <v>6.4516129032258063E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>298</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>24</v>
       </c>
@@ -977,12 +1024,15 @@
       <c r="J11">
         <v>310</v>
       </c>
-      <c r="K11" s="9">
-        <f>(I11-H11)/H11</f>
-        <v>2.9605263157894735E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>310</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>21</v>
       </c>
@@ -1013,12 +1063,15 @@
       <c r="J12">
         <v>298</v>
       </c>
-      <c r="K12" s="9">
-        <f>(I12-H12)/H12</f>
-        <v>-2.7692307692307693E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>298</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -1049,1021 +1102,1142 @@
       <c r="J13">
         <v>322</v>
       </c>
-      <c r="K13" s="9">
-        <f>(I13-H13)/H13</f>
-        <v>-5.2785923753665691E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="K13">
+        <v>322</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>300</v>
+      </c>
+      <c r="L14" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>1000</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>308</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>303</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>325</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>319</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>210</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>295</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>294</v>
       </c>
-      <c r="K14" s="9">
-        <f>(I14-H14)/H14</f>
-        <v>0.40476190476190477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="K15">
+        <v>294</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>775</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>312</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>315</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>314</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>340</v>
-      </c>
-      <c r="H15">
-        <v>340</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>334</v>
-      </c>
-      <c r="K15" s="9">
-        <f>(I15-H15)/H15</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D16">
-        <v>305</v>
-      </c>
-      <c r="E16">
-        <v>298</v>
-      </c>
-      <c r="F16">
-        <v>303</v>
-      </c>
-      <c r="G16">
-        <v>309</v>
       </c>
       <c r="H16">
         <v>340</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>334</v>
+      </c>
+      <c r="K16" s="8">
+        <v>334</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>305</v>
+      </c>
+      <c r="E17">
+        <v>298</v>
+      </c>
+      <c r="F17">
+        <v>303</v>
+      </c>
+      <c r="G17">
+        <v>309</v>
+      </c>
+      <c r="H17">
+        <v>340</v>
+      </c>
+      <c r="I17">
         <v>330</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>330</v>
       </c>
-      <c r="K16" s="9">
-        <f>(I16-H16)/H16</f>
-        <v>-2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="K17">
+        <v>330</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>22000</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>298</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>300</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>302</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>298</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>295</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>293</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>300</v>
       </c>
-      <c r="K18" s="9">
-        <f>(I18-H18)/H18</f>
-        <v>-6.7796610169491523E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>2000</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>300</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>306</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>314</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>309</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>315</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>339</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>340</v>
       </c>
-      <c r="K19" s="9">
-        <f>(I19-H19)/H19</f>
-        <v>7.6190476190476197E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="K20">
+        <v>340</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>5000</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>310</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>300</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>292</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>317</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>310</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>303</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>299</v>
       </c>
-      <c r="K20" s="9">
-        <f>(I20-H20)/H20</f>
-        <v>-2.2580645161290321E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="K21">
+        <v>299</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>15000</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>270</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>295</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>286</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>287</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>296</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>279</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>303</v>
       </c>
-      <c r="K21" s="9">
-        <f>(I21-H21)/H21</f>
-        <v>-5.7432432432432436E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="K22">
+        <v>303</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>8000</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>249</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>254</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>254</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>245</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>242</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>295</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>308</v>
       </c>
-      <c r="K22" s="9">
-        <f>(I22-H22)/H22</f>
-        <v>0.21900826446280991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="K23">
+        <v>308</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>2000</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>295</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>310</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>343</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>334</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>350</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>350</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>354</v>
       </c>
-      <c r="K23" s="9">
-        <f>(I23-H23)/H23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="K24">
+        <v>354</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>5000</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>336</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>329</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>337</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>338</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>339</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>371</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>333</v>
       </c>
-      <c r="K24" s="9">
-        <f>(I24-H24)/H24</f>
-        <v>9.4395280235988199E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="K25">
+        <v>333</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>306</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>306</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>307</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>306</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>307</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>323</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>323</v>
       </c>
-      <c r="K25" s="9">
-        <f>(I25-H25)/H25</f>
-        <v>5.2117263843648211E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="K26">
+        <v>323</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>5000</v>
-      </c>
-      <c r="D26">
-        <v>312</v>
-      </c>
-      <c r="E26">
-        <v>317</v>
-      </c>
-      <c r="F26">
-        <v>326</v>
-      </c>
-      <c r="G26">
-        <v>293</v>
-      </c>
-      <c r="H26">
-        <v>281</v>
-      </c>
-      <c r="I26">
-        <v>320</v>
-      </c>
-      <c r="J26">
-        <v>327</v>
-      </c>
-      <c r="K26" s="9">
-        <f>(I26-H26)/H26</f>
-        <v>0.13879003558718861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4">
-        <v>18000</v>
       </c>
       <c r="D27">
         <v>312</v>
       </c>
       <c r="E27">
+        <v>317</v>
+      </c>
+      <c r="F27">
+        <v>326</v>
+      </c>
+      <c r="G27">
+        <v>293</v>
+      </c>
+      <c r="H27">
+        <v>281</v>
+      </c>
+      <c r="I27">
+        <v>320</v>
+      </c>
+      <c r="J27">
+        <v>327</v>
+      </c>
+      <c r="K27">
+        <v>327</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4">
+        <v>18000</v>
+      </c>
+      <c r="D28">
+        <v>312</v>
+      </c>
+      <c r="E28">
         <v>339</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>342</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>345</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>348</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>364</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>359</v>
       </c>
-      <c r="K27" s="9">
-        <f>(I27-H27)/H27</f>
-        <v>4.5977011494252873E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="K28">
+        <v>359</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>2000</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>319</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>321</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>310</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>341</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>342</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>339</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>339</v>
       </c>
-      <c r="K28" s="9">
-        <f>(I28-H28)/H28</f>
-        <v>-8.771929824561403E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="K29">
+        <v>339</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>3000</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>305</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>299</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>300</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>289</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>287</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>304</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>300</v>
       </c>
-      <c r="K29" s="9">
-        <f>(I29-H29)/H29</f>
-        <v>5.9233449477351915E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="K30">
+        <v>300</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>4000</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>307</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>306</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>284</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>343</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>343</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>338</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>317</v>
       </c>
-      <c r="K30" s="9">
-        <f>(I30-H30)/H30</f>
-        <v>-1.4577259475218658E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="K31">
+        <v>317</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="4">
         <v>676</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>342</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>341</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>329</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>318</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>307</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>293</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>283</v>
       </c>
-      <c r="K31" s="9">
-        <f>(I31-H31)/H31</f>
-        <v>-4.5602605863192182E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="K32">
+        <v>283</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="4">
         <v>6000</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>337</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>336</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>336</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>338</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>334</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>341</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>337</v>
       </c>
-      <c r="K32" s="9">
-        <f>(I32-H32)/H32</f>
-        <v>2.0958083832335328E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="K33">
+        <v>337</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="4">
         <v>3000</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>246</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>257</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>255</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>255</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>250</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>269</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>260</v>
       </c>
-      <c r="K33" s="9">
-        <f>(I33-H33)/H33</f>
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="K34">
+        <v>260</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>1000</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>278</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>287</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>290</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>277</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>311</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>309</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>309</v>
       </c>
-      <c r="K34" s="9">
-        <f>(I34-H34)/H34</f>
-        <v>-6.4308681672025723E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="K35">
+        <v>309</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="4">
         <v>5000</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>262</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>264</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>267</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>268</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>264</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>281</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>294</v>
       </c>
-      <c r="K35" s="9">
-        <f>(I35-H35)/H35</f>
-        <v>6.4393939393939392E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="K36">
+        <v>294</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="4">
         <v>2000</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>340</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>318</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>346</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>331</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>339</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>339</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>335</v>
       </c>
-      <c r="K36" s="9">
-        <f>(I36-H36)/H36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="K37">
+        <v>335</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C38" s="4">
         <v>9000</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>305</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>301</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>297</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>299</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>297</v>
-      </c>
-      <c r="I37">
-        <v>307</v>
-      </c>
-      <c r="J37">
-        <v>315</v>
-      </c>
-      <c r="K37" s="9">
-        <f>(I37-H37)/H37</f>
-        <v>3.3670033670033669E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D38">
-        <v>252</v>
-      </c>
-      <c r="E38">
-        <v>240</v>
-      </c>
-      <c r="F38">
-        <v>282</v>
-      </c>
-      <c r="G38">
-        <v>282</v>
-      </c>
-      <c r="H38">
-        <v>293</v>
       </c>
       <c r="I38">
         <v>307</v>
       </c>
       <c r="J38">
+        <v>315</v>
+      </c>
+      <c r="K38">
+        <v>315</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D39">
+        <v>252</v>
+      </c>
+      <c r="E39">
+        <v>240</v>
+      </c>
+      <c r="F39">
+        <v>282</v>
+      </c>
+      <c r="G39">
+        <v>282</v>
+      </c>
+      <c r="H39">
+        <v>293</v>
+      </c>
+      <c r="I39">
+        <v>307</v>
+      </c>
+      <c r="J39">
         <v>292</v>
       </c>
-      <c r="K38" s="9">
-        <f>(I38-H38)/H38</f>
-        <v>4.778156996587031E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="K39">
+        <v>292</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>2</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C40" s="4">
         <v>767</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>386</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>384</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>387</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>385</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>382</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>389</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>388</v>
       </c>
-      <c r="K39" s="9">
-        <f>(I39-H39)/H39</f>
-        <v>1.832460732984293E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="K40">
+        <v>388</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="4">
         <v>938</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>325</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>325</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>327</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>325</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>306</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>328</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>322</v>
       </c>
-      <c r="K40" s="9">
-        <f>(I40-H40)/H40</f>
-        <v>7.1895424836601302E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="K41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>22</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="4">
         <v>3000</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>312</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>303</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>306</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>307</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>307</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>316</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>316</v>
       </c>
-      <c r="K41" s="9">
-        <f>(I41-H41)/H41</f>
-        <v>2.9315960912052116E-2</v>
+      <c r="K42">
+        <v>316</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
-    <sortCondition ref="B2:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
+    <sortCondition ref="B2:B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6F242-5B34-4D96-85BB-FCD21D23AA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FCF24-5853-427B-9EA2-F69E32E8C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38080" windowHeight="21000" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>AIR LIQUIDE</t>
   </si>
@@ -214,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -265,10 +271,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -593,7 +603,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,17 +683,17 @@
       <c r="J2">
         <v>329</v>
       </c>
-      <c r="K2">
-        <v>329</v>
+      <c r="K2" s="11">
+        <v>325</v>
       </c>
       <c r="L2" s="9">
         <f>(K2-J2)/J2</f>
-        <v>0</v>
+        <v>-1.2158054711246201E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -712,17 +722,17 @@
       <c r="J3">
         <v>345</v>
       </c>
-      <c r="K3">
-        <v>345</v>
+      <c r="K3" s="11">
+        <v>347</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L42" si="0">(K3-J3)/J3</f>
-        <v>0</v>
+        <f>(K3-J3)/J3</f>
+        <v>5.7971014492753624E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -751,12 +761,12 @@
       <c r="J4">
         <v>316</v>
       </c>
-      <c r="K4">
-        <v>316</v>
+      <c r="K4" s="11">
+        <v>307</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K4-J4)/J4</f>
+        <v>-2.8481012658227847E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -790,17 +800,17 @@
       <c r="J5">
         <v>390</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="11">
         <v>390</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="0"/>
+        <f>(K5-J5)/J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -829,17 +839,17 @@
       <c r="J6">
         <v>313</v>
       </c>
-      <c r="K6">
-        <v>313</v>
+      <c r="K6" s="11">
+        <v>308</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K6-J6)/J6</f>
+        <v>-1.5974440894568689E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -868,17 +878,17 @@
       <c r="J7">
         <v>324</v>
       </c>
-      <c r="K7">
-        <v>324</v>
+      <c r="K7" s="11">
+        <v>338</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K7-J7)/J7</f>
+        <v>4.3209876543209874E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -907,17 +917,17 @@
       <c r="J8">
         <v>333</v>
       </c>
-      <c r="K8">
-        <v>333</v>
+      <c r="K8" s="11">
+        <v>338</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K8-J8)/J8</f>
+        <v>1.5015015015015015E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -946,17 +956,17 @@
       <c r="J9">
         <v>301</v>
       </c>
-      <c r="K9">
-        <v>301</v>
+      <c r="K9" s="11">
+        <v>294</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K9-J9)/J9</f>
+        <v>-2.3255813953488372E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -985,17 +995,17 @@
       <c r="J10">
         <v>298</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <v>298</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="0"/>
+        <f>(K10-J10)/J10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1024,17 +1034,17 @@
       <c r="J11">
         <v>310</v>
       </c>
-      <c r="K11">
-        <v>310</v>
+      <c r="K11" s="11">
+        <v>308</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K11-J11)/J11</f>
+        <v>-6.4516129032258064E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1063,12 +1073,12 @@
       <c r="J12">
         <v>298</v>
       </c>
-      <c r="K12">
-        <v>298</v>
+      <c r="K12" s="11">
+        <v>310</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K12-J12)/J12</f>
+        <v>4.0268456375838924E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1102,50 +1112,53 @@
       <c r="J13">
         <v>322</v>
       </c>
-      <c r="K13">
-        <v>322</v>
+      <c r="K13" s="11">
+        <v>325</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K13-J13)/J13</f>
+        <v>9.316770186335404E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>30</v>
+      </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K14">
-        <v>300</v>
+      <c r="K14" s="11">
+        <v>299</v>
       </c>
       <c r="L14" s="9" t="e">
-        <f t="shared" si="0"/>
+        <f>(K14-J14)/J14</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1174,17 +1187,17 @@
       <c r="J15">
         <v>294</v>
       </c>
-      <c r="K15">
-        <v>294</v>
+      <c r="K15" s="11">
+        <v>307</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K15-J15)/J15</f>
+        <v>4.4217687074829932E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1213,17 +1226,17 @@
       <c r="J16" s="8">
         <v>334</v>
       </c>
-      <c r="K16" s="8">
-        <v>334</v>
+      <c r="K16" s="12">
+        <v>342</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K16-J16)/J16</f>
+        <v>2.3952095808383235E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1252,11 +1265,11 @@
       <c r="J17">
         <v>330</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="11">
         <v>330</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="0"/>
+        <f>(K17-J17)/J17</f>
         <v>0</v>
       </c>
     </row>
@@ -1291,17 +1304,17 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="11">
         <v>0</v>
       </c>
       <c r="L18" s="9" t="e">
-        <f t="shared" si="0"/>
+        <f>(K18-J18)/J18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1330,17 +1343,17 @@
       <c r="J19">
         <v>300</v>
       </c>
-      <c r="K19">
-        <v>300</v>
+      <c r="K19" s="11">
+        <v>299</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K19-J19)/J19</f>
+        <v>-3.3333333333333335E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1369,17 +1382,17 @@
       <c r="J20">
         <v>340</v>
       </c>
-      <c r="K20">
-        <v>340</v>
+      <c r="K20" s="11">
+        <v>330</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K20-J20)/J20</f>
+        <v>-2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1408,12 +1421,12 @@
       <c r="J21">
         <v>299</v>
       </c>
-      <c r="K21">
-        <v>299</v>
+      <c r="K21" s="11">
+        <v>318</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K21-J21)/J21</f>
+        <v>6.354515050167224E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1447,17 +1460,17 @@
       <c r="J22">
         <v>303</v>
       </c>
-      <c r="K22">
-        <v>303</v>
+      <c r="K22" s="11">
+        <v>277</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K22-J22)/J22</f>
+        <v>-8.5808580858085806E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1486,12 +1499,12 @@
       <c r="J23">
         <v>308</v>
       </c>
-      <c r="K23">
-        <v>308</v>
+      <c r="K23" s="11">
+        <v>306</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K23-J23)/J23</f>
+        <v>-6.4935064935064939E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1525,12 +1538,12 @@
       <c r="J24">
         <v>354</v>
       </c>
-      <c r="K24">
-        <v>354</v>
+      <c r="K24" s="11">
+        <v>353</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K24-J24)/J24</f>
+        <v>-2.8248587570621469E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1564,12 +1577,12 @@
       <c r="J25">
         <v>333</v>
       </c>
-      <c r="K25">
-        <v>333</v>
+      <c r="K25" s="11">
+        <v>358</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K25-J25)/J25</f>
+        <v>7.5075075075075076E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1603,11 +1616,11 @@
       <c r="J26">
         <v>323</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="11">
         <v>323</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="0"/>
+        <f>(K26-J26)/J26</f>
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1655,12 @@
       <c r="J27">
         <v>327</v>
       </c>
-      <c r="K27">
-        <v>327</v>
+      <c r="K27" s="11">
+        <v>319</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K27-J27)/J27</f>
+        <v>-2.4464831804281346E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1681,17 +1694,17 @@
       <c r="J28">
         <v>359</v>
       </c>
-      <c r="K28">
-        <v>359</v>
+      <c r="K28" s="11">
+        <v>356</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K28-J28)/J28</f>
+        <v>-8.356545961002786E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1720,17 +1733,17 @@
       <c r="J29">
         <v>339</v>
       </c>
-      <c r="K29">
-        <v>339</v>
+      <c r="K29" s="11">
+        <v>349</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K29-J29)/J29</f>
+        <v>2.9498525073746312E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1759,17 +1772,17 @@
       <c r="J30">
         <v>300</v>
       </c>
-      <c r="K30">
-        <v>300</v>
+      <c r="K30" s="11">
+        <v>293</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K30-J30)/J30</f>
+        <v>-2.3333333333333334E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -1798,17 +1811,17 @@
       <c r="J31">
         <v>317</v>
       </c>
-      <c r="K31">
-        <v>317</v>
+      <c r="K31" s="11">
+        <v>351</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K31-J31)/J31</f>
+        <v>0.10725552050473186</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1837,17 +1850,17 @@
       <c r="J32">
         <v>283</v>
       </c>
-      <c r="K32">
-        <v>283</v>
+      <c r="K32" s="11">
+        <v>275</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K32-J32)/J32</f>
+        <v>-2.8268551236749116E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1876,17 +1889,17 @@
       <c r="J33">
         <v>337</v>
       </c>
-      <c r="K33">
-        <v>337</v>
+      <c r="K33" s="11">
+        <v>327</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K33-J33)/J33</f>
+        <v>-2.967359050445104E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -1915,17 +1928,17 @@
       <c r="J34">
         <v>260</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="11">
         <v>260</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="0"/>
+        <f>(K34-J34)/J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -1954,17 +1967,17 @@
       <c r="J35">
         <v>309</v>
       </c>
-      <c r="K35">
-        <v>309</v>
+      <c r="K35" s="11">
+        <v>304</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K35-J35)/J35</f>
+        <v>-1.6181229773462782E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -1993,17 +2006,17 @@
       <c r="J36">
         <v>294</v>
       </c>
-      <c r="K36">
-        <v>294</v>
+      <c r="K36" s="11">
+        <v>287</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K36-J36)/J36</f>
+        <v>-2.3809523809523808E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -2032,17 +2045,17 @@
       <c r="J37">
         <v>335</v>
       </c>
-      <c r="K37">
-        <v>335</v>
+      <c r="K37" s="11">
+        <v>338</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K37-J37)/J37</f>
+        <v>8.9552238805970154E-3</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -2071,17 +2084,17 @@
       <c r="J38">
         <v>315</v>
       </c>
-      <c r="K38">
-        <v>315</v>
+      <c r="K38" s="11">
+        <v>313</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K38-J38)/J38</f>
+        <v>-6.3492063492063492E-3</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2110,12 +2123,12 @@
       <c r="J39">
         <v>292</v>
       </c>
-      <c r="K39">
-        <v>292</v>
+      <c r="K39" s="11">
+        <v>285</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K39-J39)/J39</f>
+        <v>-2.3972602739726026E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2149,17 +2162,17 @@
       <c r="J40">
         <v>388</v>
       </c>
-      <c r="K40">
-        <v>388</v>
+      <c r="K40" s="11">
+        <v>385</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K40-J40)/J40</f>
+        <v>-7.7319587628865982E-3</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>16</v>
+      <c r="A41" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -2188,17 +2201,17 @@
       <c r="J41">
         <v>322</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="13" t="s">
         <v>46</v>
       </c>
       <c r="L41" s="9" t="e">
-        <f t="shared" si="0"/>
+        <f>(K41-J41)/J41</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -2227,17 +2240,17 @@
       <c r="J42">
         <v>316</v>
       </c>
-      <c r="K42">
-        <v>316</v>
+      <c r="K42" s="11">
+        <v>331</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(K42-J42)/J42</f>
+        <v>4.746835443037975E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
-    <sortCondition ref="B2:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L43">
+    <sortCondition ref="B2:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scores_cac40.xlsx
+++ b/scores_cac40.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\_web\speedlify_cac40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FCF24-5853-427B-9EA2-F69E32E8C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC1C5B5-318C-462B-A321-0060BF8F70C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29FE540-FA3A-4302-A245-9F10C9AAC2F0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>AIR LIQUIDE</t>
   </si>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,7 +284,14 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -600,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F637E4-F38B-4437-9BAC-FC68F20039EB}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+      <selection activeCell="C1" sqref="C1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,10 +624,10 @@
     <col min="1" max="1" width="5.90625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" style="4" customWidth="1"/>
-    <col min="4" max="11" width="12.6328125" customWidth="1"/>
+    <col min="4" max="12" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -648,13 +661,16 @@
       <c r="K1" s="2">
         <v>45108</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2">
+        <v>45139</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -683,15 +699,18 @@
       <c r="J2">
         <v>329</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="13">
         <v>325</v>
       </c>
-      <c r="L2" s="9">
-        <f>(K2-J2)/J2</f>
-        <v>-1.2158054711246201E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L2" s="11">
+        <v>300</v>
+      </c>
+      <c r="M2" s="9">
+        <f>(L2-K2)/K2</f>
+        <v>-7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -722,17 +741,20 @@
       <c r="J3">
         <v>345</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="13">
         <v>347</v>
       </c>
-      <c r="L3" s="9">
-        <f>(K3-J3)/J3</f>
-        <v>5.7971014492753624E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L3" s="11">
+        <v>338</v>
+      </c>
+      <c r="M3" s="9">
+        <f>(L3-K3)/K3</f>
+        <v>-2.5936599423631124E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -761,17 +783,20 @@
       <c r="J4">
         <v>316</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="13">
         <v>307</v>
       </c>
-      <c r="L4" s="9">
-        <f>(K4-J4)/J4</f>
-        <v>-2.8481012658227847E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="11">
+        <v>314</v>
+      </c>
+      <c r="M4" s="9">
+        <f>(L4-K4)/K4</f>
+        <v>2.2801302931596091E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -800,17 +825,20 @@
       <c r="J5">
         <v>390</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="13">
         <v>390</v>
       </c>
-      <c r="L5" s="9">
-        <f>(K5-J5)/J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L5" s="11">
+        <v>376</v>
+      </c>
+      <c r="M5" s="9">
+        <f>(L5-K5)/K5</f>
+        <v>-3.5897435897435895E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -839,17 +867,20 @@
       <c r="J6">
         <v>313</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="13">
         <v>308</v>
       </c>
-      <c r="L6" s="9">
-        <f>(K6-J6)/J6</f>
-        <v>-1.5974440894568689E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L6" s="11">
+        <v>317</v>
+      </c>
+      <c r="M6" s="9">
+        <f>(L6-K6)/K6</f>
+        <v>2.922077922077922E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -878,15 +909,18 @@
       <c r="J7">
         <v>324</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="13">
         <v>338</v>
       </c>
-      <c r="L7" s="9">
-        <f>(K7-J7)/J7</f>
-        <v>4.3209876543209874E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L7" s="11">
+        <v>338</v>
+      </c>
+      <c r="M7" s="9">
+        <f>(L7-K7)/K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -917,17 +951,20 @@
       <c r="J8">
         <v>333</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="13">
         <v>338</v>
       </c>
-      <c r="L8" s="9">
-        <f>(K8-J8)/J8</f>
-        <v>1.5015015015015015E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="11">
+        <v>333</v>
+      </c>
+      <c r="M8" s="9">
+        <f>(L8-K8)/K8</f>
+        <v>-1.4792899408284023E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -956,17 +993,20 @@
       <c r="J9">
         <v>301</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="13">
         <v>294</v>
       </c>
-      <c r="L9" s="9">
-        <f>(K9-J9)/J9</f>
-        <v>-2.3255813953488372E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L9" s="11">
+        <v>294</v>
+      </c>
+      <c r="M9" s="9">
+        <f>(L9-K9)/K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -995,17 +1035,20 @@
       <c r="J10">
         <v>298</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="13">
         <v>298</v>
       </c>
-      <c r="L10" s="9">
-        <f>(K10-J10)/J10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L10" s="11">
+        <v>302</v>
+      </c>
+      <c r="M10" s="9">
+        <f>(L10-K10)/K10</f>
+        <v>1.3422818791946308E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1034,17 +1077,20 @@
       <c r="J11">
         <v>310</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="13">
         <v>308</v>
       </c>
-      <c r="L11" s="9">
-        <f>(K11-J11)/J11</f>
-        <v>-6.4516129032258064E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L11" s="11">
+        <v>310</v>
+      </c>
+      <c r="M11" s="9">
+        <f>(L11-K11)/K11</f>
+        <v>6.4935064935064939E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1073,15 +1119,18 @@
       <c r="J12">
         <v>298</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="13">
         <v>310</v>
       </c>
-      <c r="L12" s="9">
-        <f>(K12-J12)/J12</f>
-        <v>4.0268456375838924E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L12" s="11">
+        <v>316</v>
+      </c>
+      <c r="M12" s="9">
+        <f>(L12-K12)/K12</f>
+        <v>1.935483870967742E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -1112,17 +1161,20 @@
       <c r="J13">
         <v>322</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="13">
         <v>325</v>
       </c>
-      <c r="L13" s="9">
-        <f>(K13-J13)/J13</f>
-        <v>9.316770186335404E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L13" s="11">
+        <v>322</v>
+      </c>
+      <c r="M13" s="9">
+        <f>(L13-K13)/K13</f>
+        <v>-9.2307692307692316E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1148,15 +1200,18 @@
       <c r="J14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="13">
         <v>299</v>
       </c>
-      <c r="L14" s="9" t="e">
-        <f>(K14-J14)/J14</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L14" s="11">
+        <v>313</v>
+      </c>
+      <c r="M14" s="9">
+        <f>(L14-K14)/K14</f>
+        <v>4.6822742474916385E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>27</v>
       </c>
@@ -1187,17 +1242,20 @@
       <c r="J15">
         <v>294</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="13">
         <v>307</v>
       </c>
-      <c r="L15" s="9">
-        <f>(K15-J15)/J15</f>
-        <v>4.4217687074829932E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L15" s="11">
+        <v>311</v>
+      </c>
+      <c r="M15" s="9">
+        <f>(L15-K15)/K15</f>
+        <v>1.3029315960912053E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1226,17 +1284,20 @@
       <c r="J16" s="8">
         <v>334</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="14">
         <v>342</v>
       </c>
-      <c r="L16" s="9">
-        <f>(K16-J16)/J16</f>
-        <v>2.3952095808383235E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L16" s="12">
+        <v>347</v>
+      </c>
+      <c r="M16" s="9">
+        <f>(L16-K16)/K16</f>
+        <v>1.4619883040935672E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1265,17 +1326,20 @@
       <c r="J17">
         <v>330</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="13">
         <v>330</v>
       </c>
-      <c r="L17" s="9">
-        <f>(K17-J17)/J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>40</v>
+      <c r="L17" s="11">
+        <v>323</v>
+      </c>
+      <c r="M17" s="9">
+        <f>(L17-K17)/K17</f>
+        <v>-2.1212121212121213E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -1304,17 +1368,20 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="13">
         <v>0</v>
       </c>
-      <c r="L18" s="9" t="e">
-        <f>(K18-J18)/J18</f>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="e">
+        <f>(L18-K18)/K18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1343,17 +1410,20 @@
       <c r="J19">
         <v>300</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="13">
         <v>299</v>
       </c>
-      <c r="L19" s="9">
-        <f>(K19-J19)/J19</f>
-        <v>-3.3333333333333335E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="11">
+        <v>314</v>
+      </c>
+      <c r="M19" s="9">
+        <f>(L19-K19)/K19</f>
+        <v>5.016722408026756E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1382,17 +1452,20 @@
       <c r="J20">
         <v>340</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="13">
         <v>330</v>
       </c>
-      <c r="L20" s="9">
-        <f>(K20-J20)/J20</f>
-        <v>-2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L20" s="11">
+        <v>329</v>
+      </c>
+      <c r="M20" s="9">
+        <f>(L20-K20)/K20</f>
+        <v>-3.0303030303030303E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1421,17 +1494,20 @@
       <c r="J21">
         <v>299</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="13">
         <v>318</v>
       </c>
-      <c r="L21" s="9">
-        <f>(K21-J21)/J21</f>
-        <v>6.354515050167224E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L21" s="11">
+        <v>297</v>
+      </c>
+      <c r="M21" s="9">
+        <f>(L21-K21)/K21</f>
+        <v>-6.6037735849056603E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1460,17 +1536,20 @@
       <c r="J22">
         <v>303</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="13">
         <v>277</v>
       </c>
-      <c r="L22" s="9">
-        <f>(K22-J22)/J22</f>
-        <v>-8.5808580858085806E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L22" s="11">
+        <v>291</v>
+      </c>
+      <c r="M22" s="9">
+        <f>(L22-K22)/K22</f>
+        <v>5.0541516245487361E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1499,17 +1578,20 @@
       <c r="J23">
         <v>308</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="13">
         <v>306</v>
       </c>
-      <c r="L23" s="9">
-        <f>(K23-J23)/J23</f>
-        <v>-6.4935064935064939E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L23" s="11">
+        <v>308</v>
+      </c>
+      <c r="M23" s="9">
+        <f>(L23-K23)/K23</f>
+        <v>6.5359477124183009E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1538,15 +1620,18 @@
       <c r="J24">
         <v>354</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="13">
         <v>353</v>
       </c>
-      <c r="L24" s="9">
-        <f>(K24-J24)/J24</f>
-        <v>-2.8248587570621469E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L24" s="11">
+        <v>346</v>
+      </c>
+      <c r="M24" s="9">
+        <f>(L24-K24)/K24</f>
+        <v>-1.9830028328611898E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1577,17 +1662,20 @@
       <c r="J25">
         <v>333</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="13">
         <v>358</v>
       </c>
-      <c r="L25" s="9">
-        <f>(K25-J25)/J25</f>
-        <v>7.5075075075075076E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L25" s="11">
+        <v>364</v>
+      </c>
+      <c r="M25" s="9">
+        <f>(L25-K25)/K25</f>
+        <v>1.6759776536312849E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1616,17 +1704,20 @@
       <c r="J26">
         <v>323</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="13">
         <v>323</v>
       </c>
-      <c r="L26" s="9">
-        <f>(K26-J26)/J26</f>
+      <c r="L26" s="11">
+        <v>323</v>
+      </c>
+      <c r="M26" s="9">
+        <f>(L26-K26)/K26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1655,15 +1746,18 @@
       <c r="J27">
         <v>327</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="13">
         <v>319</v>
       </c>
-      <c r="L27" s="9">
-        <f>(K27-J27)/J27</f>
-        <v>-2.4464831804281346E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L27" s="11">
+        <v>331</v>
+      </c>
+      <c r="M27" s="9">
+        <f>(L27-K27)/K27</f>
+        <v>3.7617554858934171E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1694,17 +1788,20 @@
       <c r="J28">
         <v>359</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="13">
         <v>356</v>
       </c>
-      <c r="L28" s="9">
-        <f>(K28-J28)/J28</f>
-        <v>-8.356545961002786E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L28" s="11">
+        <v>360</v>
+      </c>
+      <c r="M28" s="9">
+        <f>(L28-K28)/K28</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1733,17 +1830,20 @@
       <c r="J29">
         <v>339</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="13">
         <v>349</v>
       </c>
-      <c r="L29" s="9">
-        <f>(K29-J29)/J29</f>
-        <v>2.9498525073746312E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L29" s="11">
+        <v>336</v>
+      </c>
+      <c r="M29" s="9">
+        <f>(L29-K29)/K29</f>
+        <v>-3.7249283667621778E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1772,17 +1872,20 @@
       <c r="J30">
         <v>300</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="13">
         <v>293</v>
       </c>
-      <c r="L30" s="9">
-        <f>(K30-J30)/J30</f>
-        <v>-2.3333333333333334E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L30" s="11">
+        <v>302</v>
+      </c>
+      <c r="M30" s="9">
+        <f>(L30-K30)/K30</f>
+        <v>3.0716723549488054E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -1811,17 +1914,20 @@
       <c r="J31">
         <v>317</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="13">
         <v>351</v>
       </c>
-      <c r="L31" s="9">
-        <f>(K31-J31)/J31</f>
-        <v>0.10725552050473186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L31" s="11">
+        <v>331</v>
+      </c>
+      <c r="M31" s="9">
+        <f>(L31-K31)/K31</f>
+        <v>-5.6980056980056981E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1850,17 +1956,20 @@
       <c r="J32">
         <v>283</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="13">
         <v>275</v>
       </c>
-      <c r="L32" s="9">
-        <f>(K32-J32)/J32</f>
-        <v>-2.8268551236749116E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L32" s="11">
+        <v>289</v>
+      </c>
+      <c r="M32" s="9">
+        <f>(L32-K32)/K32</f>
+        <v>5.0909090909090911E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1889,15 +1998,18 @@
       <c r="J33">
         <v>337</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="13">
         <v>327</v>
       </c>
-      <c r="L33" s="9">
-        <f>(K33-J33)/J33</f>
-        <v>-2.967359050445104E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L33" s="11">
+        <v>327</v>
+      </c>
+      <c r="M33" s="9">
+        <f>(L33-K33)/K33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>39</v>
       </c>
@@ -1928,17 +2040,20 @@
       <c r="J34">
         <v>260</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="13">
         <v>260</v>
       </c>
-      <c r="L34" s="9">
-        <f>(K34-J34)/J34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="11">
+        <v>261</v>
+      </c>
+      <c r="M34" s="9">
+        <f>(L34-K34)/K34</f>
+        <v>3.8461538461538464E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -1967,15 +2082,18 @@
       <c r="J35">
         <v>309</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="13">
         <v>304</v>
       </c>
-      <c r="L35" s="9">
-        <f>(K35-J35)/J35</f>
-        <v>-1.6181229773462782E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="11">
+        <v>314</v>
+      </c>
+      <c r="M35" s="9">
+        <f>(L35-K35)/K35</f>
+        <v>3.2894736842105261E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2006,17 +2124,20 @@
       <c r="J36">
         <v>294</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="13">
         <v>287</v>
       </c>
-      <c r="L36" s="9">
-        <f>(K36-J36)/J36</f>
-        <v>-2.3809523809523808E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="11">
+        <v>292</v>
+      </c>
+      <c r="M36" s="9">
+        <f>(L36-K36)/K36</f>
+        <v>1.7421602787456445E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -2045,17 +2166,20 @@
       <c r="J37">
         <v>335</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="13">
         <v>338</v>
       </c>
-      <c r="L37" s="9">
-        <f>(K37-J37)/J37</f>
-        <v>8.9552238805970154E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="11">
+        <v>342</v>
+      </c>
+      <c r="M37" s="9">
+        <f>(L37-K37)/K37</f>
+        <v>1.1834319526627219E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -2084,17 +2208,20 @@
       <c r="J38">
         <v>315</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="13">
         <v>313</v>
       </c>
-      <c r="L38" s="9">
-        <f>(K38-J38)/J38</f>
-        <v>-6.3492063492063492E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="11">
+        <v>320</v>
+      </c>
+      <c r="M38" s="9">
+        <f>(L38-K38)/K38</f>
+        <v>2.2364217252396165E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2123,17 +2250,20 @@
       <c r="J39">
         <v>292</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="13">
         <v>285</v>
       </c>
-      <c r="L39" s="9">
-        <f>(K39-J39)/J39</f>
-        <v>-2.3972602739726026E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="11">
+        <v>279</v>
+      </c>
+      <c r="M39" s="9">
+        <f>(L39-K39)/K39</f>
+        <v>-2.1052631578947368E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2162,15 +2292,18 @@
       <c r="J40">
         <v>388</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="13">
         <v>385</v>
       </c>
-      <c r="L40" s="9">
-        <f>(K40-J40)/J40</f>
-        <v>-7.7319587628865982E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="11">
+        <v>391</v>
+      </c>
+      <c r="M40" s="9">
+        <f>(L40-K40)/K40</f>
+        <v>1.5584415584415584E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
@@ -2201,17 +2334,20 @@
       <c r="J41">
         <v>322</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="9" t="e">
-        <f>(K41-J41)/J41</f>
+      <c r="L41" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" s="9" t="e">
+        <f>(L41-K41)/K41</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -2240,17 +2376,20 @@
       <c r="J42">
         <v>316</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="13">
         <v>331</v>
       </c>
-      <c r="L42" s="9">
-        <f>(K42-J42)/J42</f>
-        <v>4.746835443037975E-2</v>
+      <c r="L42" s="11">
+        <v>316</v>
+      </c>
+      <c r="M42" s="9">
+        <f>(L42-K42)/K42</f>
+        <v>-4.5317220543806644E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L43">
-    <sortCondition ref="B2:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M44">
+    <sortCondition ref="B2:B44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
